--- a/ism_services_df.xlsx
+++ b/ism_services_df.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.zhang\Documents\Python Projects\VAR Nowcasts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.zhang\Documents\Python Projects\VAR Nowcasts-Copy1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EA6A6E-7603-4A84-BB17-F324B918E6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AFA713-13D3-441E-97A4-C8238BF4C91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,13 +363,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B321"/>
+  <dimension ref="A1:B327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="A242" sqref="A242"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -381,447 +384,447 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>45351</v>
+        <v>45535</v>
       </c>
       <c r="B2">
-        <v>58.6</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>45322</v>
+        <v>45504</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>45291</v>
+        <v>45473</v>
       </c>
       <c r="B4">
-        <v>56.7</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>45260</v>
+        <v>45443</v>
       </c>
       <c r="B5">
-        <v>57.6</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>45230</v>
+        <v>45412</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>45199</v>
+        <v>45382</v>
       </c>
       <c r="B7">
-        <v>58.6</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>45169</v>
+        <v>45351</v>
       </c>
       <c r="B8">
-        <v>58.7</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>45138</v>
+        <v>45322</v>
       </c>
       <c r="B9">
-        <v>57.6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>45107</v>
+        <v>45291</v>
       </c>
       <c r="B10">
-        <v>54.8</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>45077</v>
+        <v>45260</v>
       </c>
       <c r="B11">
-        <v>57.2</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>45046</v>
+        <v>45230</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>45016</v>
+        <v>45199</v>
       </c>
       <c r="B13">
-        <v>60.2</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>44985</v>
+        <v>45169</v>
       </c>
       <c r="B14">
-        <v>65.099999999999994</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>44957</v>
+        <v>45138</v>
       </c>
       <c r="B15">
-        <v>66.7</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>44926</v>
+        <v>45107</v>
       </c>
       <c r="B16">
-        <v>67.400000000000006</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>44895</v>
+        <v>45077</v>
       </c>
       <c r="B17">
-        <v>69.3</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>44865</v>
+        <v>45046</v>
       </c>
       <c r="B18">
-        <v>70.3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>44834</v>
+        <v>45016</v>
       </c>
       <c r="B19">
-        <v>69.599999999999994</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>44804</v>
+        <v>44985</v>
       </c>
       <c r="B20">
-        <v>72.099999999999994</v>
+        <v>65.099999999999994</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>44773</v>
+        <v>44957</v>
       </c>
       <c r="B21">
-        <v>74.2</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>44742</v>
+        <v>44926</v>
       </c>
       <c r="B22">
-        <v>79.900000000000006</v>
+        <v>67.400000000000006</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>44712</v>
+        <v>44895</v>
       </c>
       <c r="B23">
-        <v>82</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>44681</v>
+        <v>44865</v>
       </c>
       <c r="B24">
-        <v>83.6</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>44651</v>
+        <v>44834</v>
       </c>
       <c r="B25">
-        <v>83.8</v>
+        <v>69.599999999999994</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>44620</v>
+        <v>44804</v>
       </c>
       <c r="B26">
-        <v>82.5</v>
+        <v>72.099999999999994</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>44592</v>
+        <v>44773</v>
       </c>
       <c r="B27">
-        <v>81.8</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>44561</v>
+        <v>44742</v>
       </c>
       <c r="B28">
-        <v>83.7</v>
+        <v>79.900000000000006</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>44530</v>
+        <v>44712</v>
       </c>
       <c r="B29">
-        <v>82.2</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>44500</v>
+        <v>44681</v>
       </c>
       <c r="B30">
-        <v>82.6</v>
+        <v>83.6</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>44469</v>
+        <v>44651</v>
       </c>
       <c r="B31">
-        <v>80.599999999999994</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>44439</v>
+        <v>44620</v>
       </c>
       <c r="B32">
-        <v>76.5</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>44408</v>
+        <v>44592</v>
       </c>
       <c r="B33">
-        <v>83.2</v>
+        <v>81.8</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>44377</v>
+        <v>44561</v>
       </c>
       <c r="B34">
-        <v>78.400000000000006</v>
+        <v>83.7</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>44347</v>
+        <v>44530</v>
       </c>
       <c r="B35">
-        <v>78.8</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>44316</v>
+        <v>44500</v>
       </c>
       <c r="B36">
-        <v>75.2</v>
+        <v>82.6</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>44286</v>
+        <v>44469</v>
       </c>
       <c r="B37">
-        <v>73.5</v>
+        <v>80.599999999999994</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>44255</v>
+        <v>44439</v>
       </c>
       <c r="B38">
-        <v>71.5</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>44227</v>
+        <v>44408</v>
       </c>
       <c r="B39">
-        <v>64.400000000000006</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>44196</v>
+        <v>44377</v>
       </c>
       <c r="B40">
-        <v>65.7</v>
+        <v>78.400000000000006</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>44165</v>
+        <v>44347</v>
       </c>
       <c r="B41">
-        <v>64.3</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>44135</v>
+        <v>44316</v>
       </c>
       <c r="B42">
-        <v>62.8</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>44104</v>
+        <v>44286</v>
       </c>
       <c r="B43">
-        <v>59.9</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>44074</v>
+        <v>44255</v>
       </c>
       <c r="B44">
-        <v>64.2</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>44043</v>
+        <v>44227</v>
       </c>
       <c r="B45">
-        <v>57.5</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>44012</v>
+        <v>44196</v>
       </c>
       <c r="B46">
-        <v>61.1</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>43982</v>
+        <v>44165</v>
       </c>
       <c r="B47">
-        <v>55.1</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>43951</v>
+        <v>44135</v>
       </c>
       <c r="B48">
-        <v>55.1</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>43921</v>
+        <v>44104</v>
       </c>
       <c r="B49">
-        <v>50.4</v>
+        <v>59.9</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>43890</v>
+        <v>44074</v>
       </c>
       <c r="B50">
-        <v>52.5</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>43861</v>
+        <v>44043</v>
       </c>
       <c r="B51">
-        <v>56.5</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>43830</v>
+        <v>44012</v>
       </c>
       <c r="B52">
-        <v>59.8</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>43799</v>
+        <v>43982</v>
       </c>
       <c r="B53">
-        <v>57</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>43769</v>
+        <v>43951</v>
       </c>
       <c r="B54">
-        <v>56.4</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>43738</v>
+        <v>43921</v>
       </c>
       <c r="B55">
-        <v>59.5</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>43708</v>
+        <v>43890</v>
       </c>
       <c r="B56">
-        <v>58</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>43677</v>
+        <v>43861</v>
       </c>
       <c r="B57">
         <v>56.5</v>
@@ -829,2015 +832,2015 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>43646</v>
+        <v>43830</v>
       </c>
       <c r="B58">
-        <v>58.2</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>43616</v>
+        <v>43799</v>
       </c>
       <c r="B59">
-        <v>55.8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>43585</v>
+        <v>43769</v>
       </c>
       <c r="B60">
-        <v>56.1</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>43555</v>
+        <v>43738</v>
       </c>
       <c r="B61">
-        <v>58.2</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>43524</v>
+        <v>43708</v>
       </c>
       <c r="B62">
-        <v>55.8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>43496</v>
+        <v>43677</v>
       </c>
       <c r="B63">
-        <v>59.1</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>43465</v>
+        <v>43646</v>
       </c>
       <c r="B64">
-        <v>59.1</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>43434</v>
+        <v>43616</v>
       </c>
       <c r="B65">
-        <v>62.9</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>43404</v>
+        <v>43585</v>
       </c>
       <c r="B66">
-        <v>61.1</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>43373</v>
+        <v>43555</v>
       </c>
       <c r="B67">
-        <v>62.8</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>43343</v>
+        <v>43524</v>
       </c>
       <c r="B68">
-        <v>62.3</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>43312</v>
+        <v>43496</v>
       </c>
       <c r="B69">
-        <v>63.4</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>43281</v>
+        <v>43465</v>
       </c>
       <c r="B70">
-        <v>61.1</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>43251</v>
+        <v>43434</v>
       </c>
       <c r="B71">
-        <v>63.9</v>
+        <v>62.9</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>43220</v>
+        <v>43404</v>
       </c>
       <c r="B72">
-        <v>62.3</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>43190</v>
+        <v>43373</v>
       </c>
       <c r="B73">
-        <v>61.5</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>43159</v>
+        <v>43343</v>
       </c>
       <c r="B74">
-        <v>62.4</v>
+        <v>62.3</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>43131</v>
+        <v>43312</v>
       </c>
       <c r="B75">
-        <v>61.7</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>43100</v>
+        <v>43281</v>
       </c>
       <c r="B76">
-        <v>61.2</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>43069</v>
+        <v>43251</v>
       </c>
       <c r="B77">
-        <v>59.2</v>
+        <v>63.9</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>43039</v>
+        <v>43220</v>
       </c>
       <c r="B78">
-        <v>61.1</v>
+        <v>62.3</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>43008</v>
+        <v>43190</v>
       </c>
       <c r="B79">
-        <v>64.7</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>42978</v>
+        <v>43159</v>
       </c>
       <c r="B80">
-        <v>58</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>42947</v>
+        <v>43131</v>
       </c>
       <c r="B81">
-        <v>56.3</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>42916</v>
+        <v>43100</v>
       </c>
       <c r="B82">
-        <v>53.6</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>42886</v>
+        <v>43069</v>
       </c>
       <c r="B83">
-        <v>49.6</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>42855</v>
+        <v>43039</v>
       </c>
       <c r="B84">
-        <v>58.3</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>42825</v>
+        <v>43008</v>
       </c>
       <c r="B85">
-        <v>54.4</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>42794</v>
+        <v>42978</v>
       </c>
       <c r="B86">
-        <v>57.9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>42766</v>
+        <v>42947</v>
       </c>
       <c r="B87">
-        <v>57.2</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>42735</v>
+        <v>42916</v>
       </c>
       <c r="B88">
-        <v>56.3</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>42704</v>
+        <v>42886</v>
       </c>
       <c r="B89">
-        <v>54.6</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>42674</v>
+        <v>42855</v>
       </c>
       <c r="B90">
-        <v>54.8</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>42643</v>
+        <v>42825</v>
       </c>
       <c r="B91">
-        <v>52.8</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>42613</v>
+        <v>42794</v>
       </c>
       <c r="B92">
-        <v>52</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>42582</v>
+        <v>42766</v>
       </c>
       <c r="B93">
-        <v>52.6</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>42551</v>
+        <v>42735</v>
       </c>
       <c r="B94">
-        <v>55.9</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>42521</v>
+        <v>42704</v>
       </c>
       <c r="B95">
-        <v>55</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>42490</v>
+        <v>42674</v>
       </c>
       <c r="B96">
-        <v>53.9</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>42460</v>
+        <v>42643</v>
       </c>
       <c r="B97">
-        <v>50.6</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>42429</v>
+        <v>42613</v>
       </c>
       <c r="B98">
-        <v>45.9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>42400</v>
+        <v>42582</v>
       </c>
       <c r="B99">
-        <v>47</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>42369</v>
+        <v>42551</v>
       </c>
       <c r="B100">
-        <v>50.6</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>42338</v>
+        <v>42521</v>
       </c>
       <c r="B101">
-        <v>48.8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>42308</v>
+        <v>42490</v>
       </c>
       <c r="B102">
-        <v>48.3</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>42277</v>
+        <v>42460</v>
       </c>
       <c r="B103">
-        <v>48.4</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>42247</v>
+        <v>42429</v>
       </c>
       <c r="B104">
-        <v>51.1</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>42216</v>
+        <v>42400</v>
       </c>
       <c r="B105">
-        <v>52.5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>42185</v>
+        <v>42369</v>
       </c>
       <c r="B106">
-        <v>52.3</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>42155</v>
+        <v>42338</v>
       </c>
       <c r="B107">
-        <v>53.7</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>42124</v>
+        <v>42308</v>
       </c>
       <c r="B108">
-        <v>50.4</v>
+        <v>48.3</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>42094</v>
+        <v>42277</v>
       </c>
       <c r="B109">
-        <v>53.6</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>42063</v>
+        <v>42247</v>
       </c>
       <c r="B110">
-        <v>50.9</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>42035</v>
+        <v>42216</v>
       </c>
       <c r="B111">
-        <v>47.3</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>42004</v>
+        <v>42185</v>
       </c>
       <c r="B112">
-        <v>51.1</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>41973</v>
+        <v>42155</v>
       </c>
       <c r="B113">
-        <v>54.5</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>41943</v>
+        <v>42124</v>
       </c>
       <c r="B114">
-        <v>52</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>41912</v>
+        <v>42094</v>
       </c>
       <c r="B115">
-        <v>55.1</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>41882</v>
+        <v>42063</v>
       </c>
       <c r="B116">
-        <v>57.7</v>
+        <v>50.9</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>41851</v>
+        <v>42035</v>
       </c>
       <c r="B117">
-        <v>58.1</v>
+        <v>47.3</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>41820</v>
+        <v>42004</v>
       </c>
       <c r="B118">
-        <v>58.6</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>41790</v>
+        <v>41973</v>
       </c>
       <c r="B119">
-        <v>58.5</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>41759</v>
+        <v>41943</v>
       </c>
       <c r="B120">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>41729</v>
+        <v>41912</v>
       </c>
       <c r="B121">
-        <v>58.1</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>41698</v>
+        <v>41882</v>
       </c>
       <c r="B122">
-        <v>56.4</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>41670</v>
+        <v>41851</v>
       </c>
       <c r="B123">
-        <v>60</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>41639</v>
+        <v>41820</v>
       </c>
       <c r="B124">
-        <v>56.9</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>41608</v>
+        <v>41790</v>
       </c>
       <c r="B125">
-        <v>53.2</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>41578</v>
+        <v>41759</v>
       </c>
       <c r="B126">
-        <v>56.2</v>
+        <v>61</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>41547</v>
+        <v>41729</v>
       </c>
       <c r="B127">
-        <v>56.4</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>41517</v>
+        <v>41698</v>
       </c>
       <c r="B128">
-        <v>53.5</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>41486</v>
+        <v>41670</v>
       </c>
       <c r="B129">
-        <v>55.3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>41455</v>
+        <v>41639</v>
       </c>
       <c r="B130">
-        <v>53.7</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>41425</v>
+        <v>41608</v>
       </c>
       <c r="B131">
-        <v>53</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>41394</v>
+        <v>41578</v>
       </c>
       <c r="B132">
-        <v>53.8</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>41364</v>
+        <v>41547</v>
       </c>
       <c r="B133">
-        <v>55.6</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>41333</v>
+        <v>41517</v>
       </c>
       <c r="B134">
-        <v>59.9</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>41305</v>
+        <v>41486</v>
       </c>
       <c r="B135">
-        <v>60</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>41274</v>
+        <v>41455</v>
       </c>
       <c r="B136">
-        <v>58.3</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>41243</v>
+        <v>41425</v>
       </c>
       <c r="B137">
-        <v>58.3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <v>41213</v>
+        <v>41394</v>
       </c>
       <c r="B138">
-        <v>60.9</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>41182</v>
+        <v>41364</v>
       </c>
       <c r="B139">
-        <v>65</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>41152</v>
+        <v>41333</v>
       </c>
       <c r="B140">
-        <v>62.1</v>
+        <v>59.9</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>41121</v>
+        <v>41305</v>
       </c>
       <c r="B141">
-        <v>52.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>41090</v>
+        <v>41274</v>
       </c>
       <c r="B142">
-        <v>48.5</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>41060</v>
+        <v>41243</v>
       </c>
       <c r="B143">
-        <v>54</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
-        <v>41029</v>
+        <v>41213</v>
       </c>
       <c r="B144">
-        <v>58.7</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
-        <v>40999</v>
+        <v>41182</v>
       </c>
       <c r="B145">
-        <v>63.7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
-        <v>40968</v>
+        <v>41152</v>
       </c>
       <c r="B146">
-        <v>65.400000000000006</v>
+        <v>62.1</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
-        <v>40939</v>
+        <v>41121</v>
       </c>
       <c r="B147">
-        <v>63.8</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
-        <v>40908</v>
+        <v>41090</v>
       </c>
       <c r="B148">
-        <v>62.2</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
-        <v>40877</v>
+        <v>41060</v>
       </c>
       <c r="B149">
-        <v>63.4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
-        <v>40847</v>
+        <v>41029</v>
       </c>
       <c r="B150">
-        <v>57.7</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
-        <v>40816</v>
+        <v>40999</v>
       </c>
       <c r="B151">
-        <v>60.9</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <v>40786</v>
+        <v>40968</v>
       </c>
       <c r="B152">
-        <v>61.3</v>
+        <v>65.400000000000006</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
-        <v>40755</v>
+        <v>40939</v>
       </c>
       <c r="B153">
-        <v>60.7</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
-        <v>40724</v>
+        <v>40908</v>
       </c>
       <c r="B154">
-        <v>62.4</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
-        <v>40694</v>
+        <v>40877</v>
       </c>
       <c r="B155">
-        <v>70.3</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
-        <v>40663</v>
+        <v>40847</v>
       </c>
       <c r="B156">
-        <v>71</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
-        <v>40633</v>
+        <v>40816</v>
       </c>
       <c r="B157">
-        <v>70.900000000000006</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
-        <v>40602</v>
+        <v>40786</v>
       </c>
       <c r="B158">
-        <v>70.900000000000006</v>
+        <v>61.3</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
-        <v>40574</v>
+        <v>40755</v>
       </c>
       <c r="B159">
-        <v>70</v>
+        <v>60.7</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
-        <v>40543</v>
+        <v>40724</v>
       </c>
       <c r="B160">
-        <v>69.3</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
-        <v>40512</v>
+        <v>40694</v>
       </c>
       <c r="B161">
-        <v>65.599999999999994</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <v>40482</v>
+        <v>40663</v>
       </c>
       <c r="B162">
-        <v>68.2</v>
+        <v>71</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
-        <v>40451</v>
+        <v>40633</v>
       </c>
       <c r="B163">
-        <v>59.5</v>
+        <v>70.900000000000006</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
-        <v>40421</v>
+        <v>40602</v>
       </c>
       <c r="B164">
-        <v>59.2</v>
+        <v>70.900000000000006</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
-        <v>40390</v>
+        <v>40574</v>
       </c>
       <c r="B165">
-        <v>56.1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
-        <v>40359</v>
+        <v>40543</v>
       </c>
       <c r="B166">
-        <v>56.7</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
-        <v>40329</v>
+        <v>40512</v>
       </c>
       <c r="B167">
-        <v>60.8</v>
+        <v>65.599999999999994</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
-        <v>40298</v>
+        <v>40482</v>
       </c>
       <c r="B168">
-        <v>63.8</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
-        <v>40268</v>
+        <v>40451</v>
       </c>
       <c r="B169">
-        <v>60.9</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
-        <v>40237</v>
+        <v>40421</v>
       </c>
       <c r="B170">
-        <v>58.7</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
-        <v>40209</v>
+        <v>40390</v>
       </c>
       <c r="B171">
-        <v>59.4</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
-        <v>40178</v>
+        <v>40359</v>
       </c>
       <c r="B172">
-        <v>58.9</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
-        <v>40147</v>
+        <v>40329</v>
       </c>
       <c r="B173">
-        <v>58.9</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
-        <v>40117</v>
+        <v>40298</v>
       </c>
       <c r="B174">
-        <v>53.5</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
-        <v>40086</v>
+        <v>40268</v>
       </c>
       <c r="B175">
-        <v>49.6</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
-        <v>40056</v>
+        <v>40237</v>
       </c>
       <c r="B176">
-        <v>60.8</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
-        <v>40025</v>
+        <v>40209</v>
       </c>
       <c r="B177">
-        <v>41.5</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
-        <v>39994</v>
+        <v>40178</v>
       </c>
       <c r="B178">
-        <v>52.9</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
-        <v>39964</v>
+        <v>40147</v>
       </c>
       <c r="B179">
-        <v>47.1</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
-        <v>39933</v>
+        <v>40117</v>
       </c>
       <c r="B180">
-        <v>39.9</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
-        <v>39903</v>
+        <v>40086</v>
       </c>
       <c r="B181">
-        <v>40</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
-        <v>39872</v>
+        <v>40056</v>
       </c>
       <c r="B182">
-        <v>48.6</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
-        <v>39844</v>
+        <v>40025</v>
       </c>
       <c r="B183">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
-        <v>39813</v>
+        <v>39994</v>
       </c>
       <c r="B184">
-        <v>36.1</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
-        <v>39782</v>
+        <v>39964</v>
       </c>
       <c r="B185">
-        <v>37.4</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
-        <v>39752</v>
+        <v>39933</v>
       </c>
       <c r="B186">
-        <v>53.9</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
-        <v>39721</v>
+        <v>39903</v>
       </c>
       <c r="B187">
-        <v>71.900000000000006</v>
+        <v>40</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
-        <v>39691</v>
+        <v>39872</v>
       </c>
       <c r="B188">
-        <v>72.400000000000006</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
-        <v>39660</v>
+        <v>39844</v>
       </c>
       <c r="B189">
-        <v>77.400000000000006</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
-        <v>39629</v>
+        <v>39813</v>
       </c>
       <c r="B190">
-        <v>79.599999999999994</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
-        <v>39599</v>
+        <v>39782</v>
       </c>
       <c r="B191">
-        <v>75.2</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
-        <v>39568</v>
+        <v>39752</v>
       </c>
       <c r="B192">
-        <v>71.900000000000006</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
-        <v>39538</v>
+        <v>39721</v>
       </c>
       <c r="B193">
-        <v>72.7</v>
+        <v>71.900000000000006</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
-        <v>39507</v>
+        <v>39691</v>
       </c>
       <c r="B194">
-        <v>71.7</v>
+        <v>72.400000000000006</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
-        <v>39478</v>
+        <v>39660</v>
       </c>
       <c r="B195">
-        <v>71.599999999999994</v>
+        <v>77.400000000000006</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
-        <v>39447</v>
+        <v>39629</v>
       </c>
       <c r="B196">
-        <v>72</v>
+        <v>79.599999999999994</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
-        <v>39416</v>
+        <v>39599</v>
       </c>
       <c r="B197">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
-        <v>39386</v>
+        <v>39568</v>
       </c>
       <c r="B198">
-        <v>66.2</v>
+        <v>71.900000000000006</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
-        <v>39355</v>
+        <v>39538</v>
       </c>
       <c r="B199">
-        <v>66.7</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
-        <v>39325</v>
+        <v>39507</v>
       </c>
       <c r="B200">
-        <v>60</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
-        <v>39294</v>
+        <v>39478</v>
       </c>
       <c r="B201">
-        <v>59.7</v>
+        <v>71.599999999999994</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
-        <v>39263</v>
+        <v>39447</v>
       </c>
       <c r="B202">
-        <v>61.6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
-        <v>39233</v>
+        <v>39416</v>
       </c>
       <c r="B203">
-        <v>62.8</v>
+        <v>75.3</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
-        <v>39202</v>
+        <v>39386</v>
       </c>
       <c r="B204">
-        <v>63.2</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
-        <v>39172</v>
+        <v>39355</v>
       </c>
       <c r="B205">
-        <v>64.2</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
-        <v>39141</v>
+        <v>39325</v>
       </c>
       <c r="B206">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
-        <v>39113</v>
+        <v>39294</v>
       </c>
       <c r="B207">
-        <v>57.5</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
-        <v>39082</v>
+        <v>39263</v>
       </c>
       <c r="B208">
-        <v>60.5</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
-        <v>39051</v>
+        <v>39233</v>
       </c>
       <c r="B209">
-        <v>56.7</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
-        <v>39021</v>
+        <v>39202</v>
       </c>
       <c r="B210">
-        <v>56.5</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
-        <v>38990</v>
+        <v>39172</v>
       </c>
       <c r="B211">
-        <v>60.6</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
-        <v>38960</v>
+        <v>39141</v>
       </c>
       <c r="B212">
-        <v>72.2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
-        <v>38929</v>
+        <v>39113</v>
       </c>
       <c r="B213">
-        <v>70.599999999999994</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
-        <v>38898</v>
+        <v>39082</v>
       </c>
       <c r="B214">
-        <v>69</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
-        <v>38868</v>
+        <v>39051</v>
       </c>
       <c r="B215">
-        <v>70.5</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
-        <v>38837</v>
+        <v>39021</v>
       </c>
       <c r="B216">
-        <v>68.5</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
-        <v>38807</v>
+        <v>38990</v>
       </c>
       <c r="B217">
-        <v>60.1</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
-        <v>38776</v>
+        <v>38960</v>
       </c>
       <c r="B218">
-        <v>67.8</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
-        <v>38748</v>
+        <v>38929</v>
       </c>
       <c r="B219">
-        <v>69.900000000000006</v>
+        <v>70.599999999999994</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
-        <v>38717</v>
+        <v>38898</v>
       </c>
       <c r="B220">
-        <v>68.900000000000006</v>
+        <v>69</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
-        <v>38686</v>
+        <v>38868</v>
       </c>
       <c r="B221">
-        <v>72.599999999999994</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
-        <v>38656</v>
+        <v>38837</v>
       </c>
       <c r="B222">
-        <v>79.2</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
-        <v>38625</v>
+        <v>38807</v>
       </c>
       <c r="B223">
-        <v>83.5</v>
+        <v>60.1</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
-        <v>38595</v>
+        <v>38776</v>
       </c>
       <c r="B224">
-        <v>66.099999999999994</v>
+        <v>67.8</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
-        <v>38564</v>
+        <v>38748</v>
       </c>
       <c r="B225">
-        <v>65.8</v>
+        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
-        <v>38533</v>
+        <v>38717</v>
       </c>
       <c r="B226">
-        <v>58.4</v>
+        <v>68.900000000000006</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
-        <v>38503</v>
+        <v>38686</v>
       </c>
       <c r="B227">
-        <v>57.6</v>
+        <v>72.599999999999994</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
-        <v>38472</v>
+        <v>38656</v>
       </c>
       <c r="B228">
-        <v>62.4</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
-        <v>38442</v>
+        <v>38625</v>
       </c>
       <c r="B229">
-        <v>65.599999999999994</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
-        <v>38411</v>
+        <v>38595</v>
       </c>
       <c r="B230">
-        <v>69.7</v>
+        <v>66.099999999999994</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
-        <v>38383</v>
+        <v>38564</v>
       </c>
       <c r="B231">
-        <v>69.099999999999994</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
-        <v>38352</v>
+        <v>38533</v>
       </c>
       <c r="B232">
-        <v>71.3</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
-        <v>38321</v>
+        <v>38503</v>
       </c>
       <c r="B233">
-        <v>70.599999999999994</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
-        <v>38291</v>
+        <v>38472</v>
       </c>
       <c r="B234">
-        <v>72.8</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
-        <v>38260</v>
+        <v>38442</v>
       </c>
       <c r="B235">
-        <v>67</v>
+        <v>65.599999999999994</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
-        <v>38230</v>
+        <v>38411</v>
       </c>
       <c r="B236">
-        <v>70.900000000000006</v>
+        <v>69.7</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
-        <v>38199</v>
+        <v>38383</v>
       </c>
       <c r="B237">
-        <v>71.900000000000006</v>
+        <v>69.099999999999994</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
-        <v>38168</v>
+        <v>38352</v>
       </c>
       <c r="B238">
-        <v>74.2</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
-        <v>38138</v>
+        <v>38321</v>
       </c>
       <c r="B239">
-        <v>71</v>
+        <v>70.599999999999994</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
-        <v>38107</v>
+        <v>38291</v>
       </c>
       <c r="B240">
-        <v>68.599999999999994</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
-        <v>38077</v>
+        <v>38260</v>
       </c>
       <c r="B241">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
-        <v>38046</v>
+        <v>38230</v>
       </c>
       <c r="B242">
-        <v>59.5</v>
+        <v>70.900000000000006</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
-        <v>38017</v>
+        <v>38199</v>
       </c>
       <c r="B243">
-        <v>62.2</v>
+        <v>71.900000000000006</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
-        <v>37986</v>
+        <v>38168</v>
       </c>
       <c r="B244">
-        <v>61.1</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
-        <v>37955</v>
+        <v>38138</v>
       </c>
       <c r="B245">
-        <v>58.5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
-        <v>37925</v>
+        <v>38107</v>
       </c>
       <c r="B246">
-        <v>57.2</v>
+        <v>68.599999999999994</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
-        <v>37894</v>
+        <v>38077</v>
       </c>
       <c r="B247">
-        <v>59.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
-        <v>37864</v>
+        <v>38046</v>
       </c>
       <c r="B248">
-        <v>56.1</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
-        <v>37833</v>
+        <v>38017</v>
       </c>
       <c r="B249">
-        <v>51.4</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
-        <v>37802</v>
+        <v>37986</v>
       </c>
       <c r="B250">
-        <v>52.3</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
-        <v>37772</v>
+        <v>37955</v>
       </c>
       <c r="B251">
-        <v>50</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
-        <v>37741</v>
+        <v>37925</v>
       </c>
       <c r="B252">
-        <v>55.7</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
-        <v>37711</v>
+        <v>37894</v>
       </c>
       <c r="B253">
-        <v>59.4</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
-        <v>37680</v>
+        <v>37864</v>
       </c>
       <c r="B254">
-        <v>60.5</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
-        <v>37652</v>
+        <v>37833</v>
       </c>
       <c r="B255">
-        <v>58</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
-        <v>37621</v>
+        <v>37802</v>
       </c>
       <c r="B256">
-        <v>56.5</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
-        <v>37590</v>
+        <v>37772</v>
       </c>
       <c r="B257">
-        <v>57.6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
-        <v>37560</v>
+        <v>37741</v>
       </c>
       <c r="B258">
-        <v>56.1</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
-        <v>37529</v>
+        <v>37711</v>
       </c>
       <c r="B259">
-        <v>53.4</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
-        <v>37499</v>
+        <v>37680</v>
       </c>
       <c r="B260">
-        <v>55.1</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
-        <v>37468</v>
+        <v>37652</v>
       </c>
       <c r="B261">
-        <v>60.5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
-        <v>37437</v>
+        <v>37621</v>
       </c>
       <c r="B262">
-        <v>53.1</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
-        <v>37407</v>
+        <v>37590</v>
       </c>
       <c r="B263">
-        <v>55.2</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
-        <v>37376</v>
+        <v>37560</v>
       </c>
       <c r="B264">
-        <v>53.7</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
-        <v>37346</v>
+        <v>37529</v>
       </c>
       <c r="B265">
-        <v>49.2</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
-        <v>37315</v>
+        <v>37499</v>
       </c>
       <c r="B266">
-        <v>47.6</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
-        <v>37287</v>
+        <v>37468</v>
       </c>
       <c r="B267">
-        <v>48.8</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
-        <v>37256</v>
+        <v>37437</v>
       </c>
       <c r="B268">
-        <v>42.3</v>
+        <v>53.1</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
-        <v>37225</v>
+        <v>37407</v>
       </c>
       <c r="B269">
-        <v>41.3</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
-        <v>37195</v>
+        <v>37376</v>
       </c>
       <c r="B270">
-        <v>43.4</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
-        <v>37164</v>
+        <v>37346</v>
       </c>
       <c r="B271">
-        <v>50.2</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
-        <v>37134</v>
+        <v>37315</v>
       </c>
       <c r="B272">
-        <v>48.9</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
-        <v>37103</v>
+        <v>37287</v>
       </c>
       <c r="B273">
-        <v>49.9</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
-        <v>37072</v>
+        <v>37256</v>
       </c>
       <c r="B274">
-        <v>54.5</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
-        <v>37042</v>
+        <v>37225</v>
       </c>
       <c r="B275">
-        <v>58.5</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
-        <v>37011</v>
+        <v>37195</v>
       </c>
       <c r="B276">
-        <v>53.8</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
-        <v>36981</v>
+        <v>37164</v>
       </c>
       <c r="B277">
-        <v>55.8</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
-        <v>36950</v>
+        <v>37134</v>
       </c>
       <c r="B278">
-        <v>58.1</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
-        <v>36922</v>
+        <v>37103</v>
       </c>
       <c r="B279">
-        <v>61.8</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
-        <v>36891</v>
+        <v>37072</v>
       </c>
       <c r="B280">
-        <v>63.5</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
-        <v>36860</v>
+        <v>37042</v>
       </c>
       <c r="B281">
-        <v>60.9</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
-        <v>36830</v>
+        <v>37011</v>
       </c>
       <c r="B282">
-        <v>63.7</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
-        <v>36799</v>
+        <v>36981</v>
       </c>
       <c r="B283">
-        <v>62.1</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
-        <v>36769</v>
+        <v>36950</v>
       </c>
       <c r="B284">
-        <v>59.2</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
-        <v>36738</v>
+        <v>36922</v>
       </c>
       <c r="B285">
-        <v>62.1</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
-        <v>36707</v>
+        <v>36891</v>
       </c>
       <c r="B286">
-        <v>65</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
-        <v>36677</v>
+        <v>36860</v>
       </c>
       <c r="B287">
-        <v>64.2</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
-        <v>36646</v>
+        <v>36830</v>
       </c>
       <c r="B288">
-        <v>65</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
-        <v>36616</v>
+        <v>36799</v>
       </c>
       <c r="B289">
-        <v>68.599999999999994</v>
+        <v>62.1</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
-        <v>36585</v>
+        <v>36769</v>
       </c>
       <c r="B290">
-        <v>66.5</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
-        <v>36556</v>
+        <v>36738</v>
       </c>
       <c r="B291">
-        <v>61.4</v>
+        <v>62.1</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
-        <v>36525</v>
+        <v>36707</v>
       </c>
       <c r="B292">
-        <v>60.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
-        <v>36494</v>
+        <v>36677</v>
       </c>
       <c r="B293">
-        <v>61</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
-        <v>36464</v>
+        <v>36646</v>
       </c>
       <c r="B294">
-        <v>58.9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
-        <v>36433</v>
+        <v>36616</v>
       </c>
       <c r="B295">
-        <v>64.2</v>
+        <v>68.599999999999994</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
-        <v>36403</v>
+        <v>36585</v>
       </c>
       <c r="B296">
-        <v>58.9</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
-        <v>36372</v>
+        <v>36556</v>
       </c>
       <c r="B297">
-        <v>57.7</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
-        <v>36341</v>
+        <v>36525</v>
       </c>
       <c r="B298">
-        <v>53.2</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
-        <v>36311</v>
+        <v>36494</v>
       </c>
       <c r="B299">
-        <v>52.9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
-        <v>36280</v>
+        <v>36464</v>
       </c>
       <c r="B300">
-        <v>51.4</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
-        <v>36250</v>
+        <v>36433</v>
       </c>
       <c r="B301">
-        <v>48.9</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
-        <v>36219</v>
+        <v>36403</v>
       </c>
       <c r="B302">
-        <v>45.5</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
-        <v>36191</v>
+        <v>36372</v>
       </c>
       <c r="B303">
-        <v>47</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
-        <v>36160</v>
+        <v>36341</v>
       </c>
       <c r="B304">
-        <v>48.5</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
-        <v>36129</v>
+        <v>36311</v>
       </c>
       <c r="B305">
-        <v>47.3</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
-        <v>36099</v>
+        <v>36280</v>
       </c>
       <c r="B306">
-        <v>49.3</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
-        <v>36068</v>
+        <v>36250</v>
       </c>
       <c r="B307">
-        <v>46.2</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
-        <v>36038</v>
+        <v>36219</v>
       </c>
       <c r="B308">
-        <v>47.9</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
-        <v>36007</v>
+        <v>36191</v>
       </c>
       <c r="B309">
         <v>47</v>
@@ -2845,97 +2848,145 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
-        <v>35976</v>
+        <v>36160</v>
       </c>
       <c r="B310">
-        <v>45.5</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
-        <v>35946</v>
+        <v>36129</v>
       </c>
       <c r="B311">
-        <v>47.2</v>
+        <v>47.3</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
-        <v>35915</v>
+        <v>36099</v>
       </c>
       <c r="B312">
-        <v>46.8</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
-        <v>35885</v>
+        <v>36068</v>
       </c>
       <c r="B313">
-        <v>47.9</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
-        <v>35854</v>
+        <v>36038</v>
       </c>
       <c r="B314">
-        <v>51.6</v>
+        <v>47.9</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
-        <v>35826</v>
+        <v>36007</v>
       </c>
       <c r="B315">
-        <v>52.7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
-        <v>35795</v>
+        <v>35976</v>
       </c>
       <c r="B316">
-        <v>54.9</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
-        <v>35764</v>
+        <v>35946</v>
       </c>
       <c r="B317">
-        <v>54.3</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
-        <v>35734</v>
+        <v>35915</v>
       </c>
       <c r="B318">
-        <v>53.1</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
-        <v>35703</v>
+        <v>35885</v>
       </c>
       <c r="B319">
-        <v>53.1</v>
+        <v>47.9</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
-        <v>35673</v>
+        <v>35854</v>
       </c>
       <c r="B320">
-        <v>53.3</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
+        <v>35826</v>
+      </c>
+      <c r="B321">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A322" s="1">
+        <v>35795</v>
+      </c>
+      <c r="B322">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A323" s="1">
+        <v>35764</v>
+      </c>
+      <c r="B323">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A324" s="1">
+        <v>35734</v>
+      </c>
+      <c r="B324">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A325" s="1">
+        <v>35703</v>
+      </c>
+      <c r="B325">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A326" s="1">
+        <v>35673</v>
+      </c>
+      <c r="B326">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A327" s="1">
         <v>35642</v>
       </c>
-      <c r="B321">
+      <c r="B327">
         <v>50.9</v>
       </c>
     </row>

--- a/ism_services_df.xlsx
+++ b/ism_services_df.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.zhang\Documents\Python Projects\VAR Nowcasts-Copy1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AFA713-13D3-441E-97A4-C8238BF4C91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515FB06B-1FBA-4B3D-9453-D08F9C7D151D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B327"/>
+  <dimension ref="A1:B331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -371,7 +371,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -384,111 +384,111 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>45535</v>
+        <v>45657</v>
       </c>
       <c r="B2">
-        <v>57.3</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>45504</v>
+        <v>45626</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>45473</v>
+        <v>45596</v>
       </c>
       <c r="B4">
-        <v>56.3</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>45443</v>
+        <v>45565</v>
       </c>
       <c r="B5">
-        <v>58.1</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>45412</v>
+        <v>45535</v>
       </c>
       <c r="B6">
-        <v>59.2</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>45382</v>
+        <v>45504</v>
       </c>
       <c r="B7">
-        <v>53.4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>45351</v>
+        <v>45473</v>
       </c>
       <c r="B8">
-        <v>58.6</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>45322</v>
+        <v>45443</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>45291</v>
+        <v>45412</v>
       </c>
       <c r="B10">
-        <v>56.7</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>45260</v>
+        <v>45382</v>
       </c>
       <c r="B11">
-        <v>57.6</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>45230</v>
+        <v>45351</v>
       </c>
       <c r="B12">
-        <v>58</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>45199</v>
+        <v>45322</v>
       </c>
       <c r="B13">
-        <v>58.6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>45169</v>
+        <v>45291</v>
       </c>
       <c r="B14">
-        <v>58.7</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="B15">
         <v>57.6</v>
@@ -496,487 +496,487 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>45107</v>
+        <v>45230</v>
       </c>
       <c r="B16">
-        <v>54.8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>45077</v>
+        <v>45199</v>
       </c>
       <c r="B17">
-        <v>57.2</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>45046</v>
+        <v>45169</v>
       </c>
       <c r="B18">
-        <v>60</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>45016</v>
+        <v>45138</v>
       </c>
       <c r="B19">
-        <v>60.2</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>44985</v>
+        <v>45107</v>
       </c>
       <c r="B20">
-        <v>65.099999999999994</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>44957</v>
+        <v>45077</v>
       </c>
       <c r="B21">
-        <v>66.7</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>44926</v>
+        <v>45046</v>
       </c>
       <c r="B22">
-        <v>67.400000000000006</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>44895</v>
+        <v>45016</v>
       </c>
       <c r="B23">
-        <v>69.3</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>44865</v>
+        <v>44985</v>
       </c>
       <c r="B24">
-        <v>70.3</v>
+        <v>65.099999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>44834</v>
+        <v>44957</v>
       </c>
       <c r="B25">
-        <v>69.599999999999994</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>44804</v>
+        <v>44926</v>
       </c>
       <c r="B26">
-        <v>72.099999999999994</v>
+        <v>67.400000000000006</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>44773</v>
+        <v>44895</v>
       </c>
       <c r="B27">
-        <v>74.2</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>44742</v>
+        <v>44865</v>
       </c>
       <c r="B28">
-        <v>79.900000000000006</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>44712</v>
+        <v>44834</v>
       </c>
       <c r="B29">
-        <v>82</v>
+        <v>69.599999999999994</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>44681</v>
+        <v>44804</v>
       </c>
       <c r="B30">
-        <v>83.6</v>
+        <v>72.099999999999994</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>44651</v>
+        <v>44773</v>
       </c>
       <c r="B31">
-        <v>83.8</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>44620</v>
+        <v>44742</v>
       </c>
       <c r="B32">
-        <v>82.5</v>
+        <v>79.900000000000006</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>44592</v>
+        <v>44712</v>
       </c>
       <c r="B33">
-        <v>81.8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>44561</v>
+        <v>44681</v>
       </c>
       <c r="B34">
-        <v>83.7</v>
+        <v>83.6</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>44530</v>
+        <v>44651</v>
       </c>
       <c r="B35">
-        <v>82.2</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>44500</v>
+        <v>44620</v>
       </c>
       <c r="B36">
-        <v>82.6</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>44469</v>
+        <v>44592</v>
       </c>
       <c r="B37">
-        <v>80.599999999999994</v>
+        <v>81.8</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>44439</v>
+        <v>44561</v>
       </c>
       <c r="B38">
-        <v>76.5</v>
+        <v>83.7</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>44408</v>
+        <v>44530</v>
       </c>
       <c r="B39">
-        <v>83.2</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>44377</v>
+        <v>44500</v>
       </c>
       <c r="B40">
-        <v>78.400000000000006</v>
+        <v>82.6</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>44347</v>
+        <v>44469</v>
       </c>
       <c r="B41">
-        <v>78.8</v>
+        <v>80.599999999999994</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>44316</v>
+        <v>44439</v>
       </c>
       <c r="B42">
-        <v>75.2</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>44286</v>
+        <v>44408</v>
       </c>
       <c r="B43">
-        <v>73.5</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>44255</v>
+        <v>44377</v>
       </c>
       <c r="B44">
-        <v>71.5</v>
+        <v>78.400000000000006</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>44227</v>
+        <v>44347</v>
       </c>
       <c r="B45">
-        <v>64.400000000000006</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>44196</v>
+        <v>44316</v>
       </c>
       <c r="B46">
-        <v>65.7</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>44165</v>
+        <v>44286</v>
       </c>
       <c r="B47">
-        <v>64.3</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>44135</v>
+        <v>44255</v>
       </c>
       <c r="B48">
-        <v>62.8</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>44104</v>
+        <v>44227</v>
       </c>
       <c r="B49">
-        <v>59.9</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>44074</v>
+        <v>44196</v>
       </c>
       <c r="B50">
-        <v>64.2</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>44043</v>
+        <v>44165</v>
       </c>
       <c r="B51">
-        <v>57.5</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>44012</v>
+        <v>44135</v>
       </c>
       <c r="B52">
-        <v>61.1</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>43982</v>
+        <v>44104</v>
       </c>
       <c r="B53">
-        <v>55.1</v>
+        <v>59.9</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>43951</v>
+        <v>44074</v>
       </c>
       <c r="B54">
-        <v>55.1</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>43921</v>
+        <v>44043</v>
       </c>
       <c r="B55">
-        <v>50.4</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>43890</v>
+        <v>44012</v>
       </c>
       <c r="B56">
-        <v>52.5</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>43861</v>
+        <v>43982</v>
       </c>
       <c r="B57">
-        <v>56.5</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>43830</v>
+        <v>43951</v>
       </c>
       <c r="B58">
-        <v>59.8</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>43799</v>
+        <v>43921</v>
       </c>
       <c r="B59">
-        <v>57</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>43769</v>
+        <v>43890</v>
       </c>
       <c r="B60">
-        <v>56.4</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>43738</v>
+        <v>43861</v>
       </c>
       <c r="B61">
-        <v>59.5</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>43708</v>
+        <v>43830</v>
       </c>
       <c r="B62">
-        <v>58</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>43677</v>
+        <v>43799</v>
       </c>
       <c r="B63">
-        <v>56.5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>43646</v>
+        <v>43769</v>
       </c>
       <c r="B64">
-        <v>58.2</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>43616</v>
+        <v>43738</v>
       </c>
       <c r="B65">
-        <v>55.8</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>43585</v>
+        <v>43708</v>
       </c>
       <c r="B66">
-        <v>56.1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>43555</v>
+        <v>43677</v>
       </c>
       <c r="B67">
-        <v>58.2</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>43524</v>
+        <v>43646</v>
       </c>
       <c r="B68">
-        <v>55.8</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>43496</v>
+        <v>43616</v>
       </c>
       <c r="B69">
-        <v>59.1</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>43465</v>
+        <v>43585</v>
       </c>
       <c r="B70">
-        <v>59.1</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>43434</v>
+        <v>43555</v>
       </c>
       <c r="B71">
-        <v>62.9</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>43404</v>
+        <v>43524</v>
       </c>
       <c r="B72">
-        <v>61.1</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>43373</v>
+        <v>43496</v>
       </c>
       <c r="B73">
-        <v>62.8</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>43343</v>
+        <v>43465</v>
       </c>
       <c r="B74">
-        <v>62.3</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>43312</v>
+        <v>43434</v>
       </c>
       <c r="B75">
-        <v>63.4</v>
+        <v>62.9</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>43281</v>
+        <v>43404</v>
       </c>
       <c r="B76">
         <v>61.1</v>
@@ -984,15 +984,15 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>43251</v>
+        <v>43373</v>
       </c>
       <c r="B77">
-        <v>63.9</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>43220</v>
+        <v>43343</v>
       </c>
       <c r="B78">
         <v>62.3</v>
@@ -1000,391 +1000,391 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>43190</v>
+        <v>43312</v>
       </c>
       <c r="B79">
-        <v>61.5</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>43159</v>
+        <v>43281</v>
       </c>
       <c r="B80">
-        <v>62.4</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>43131</v>
+        <v>43251</v>
       </c>
       <c r="B81">
-        <v>61.7</v>
+        <v>63.9</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>43100</v>
+        <v>43220</v>
       </c>
       <c r="B82">
-        <v>61.2</v>
+        <v>62.3</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>43069</v>
+        <v>43190</v>
       </c>
       <c r="B83">
-        <v>59.2</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>43039</v>
+        <v>43159</v>
       </c>
       <c r="B84">
-        <v>61.1</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>43008</v>
+        <v>43131</v>
       </c>
       <c r="B85">
-        <v>64.7</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>42978</v>
+        <v>43100</v>
       </c>
       <c r="B86">
-        <v>58</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>42947</v>
+        <v>43069</v>
       </c>
       <c r="B87">
-        <v>56.3</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>42916</v>
+        <v>43039</v>
       </c>
       <c r="B88">
-        <v>53.6</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>42886</v>
+        <v>43008</v>
       </c>
       <c r="B89">
-        <v>49.6</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>42855</v>
+        <v>42978</v>
       </c>
       <c r="B90">
-        <v>58.3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>42825</v>
+        <v>42947</v>
       </c>
       <c r="B91">
-        <v>54.4</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>42794</v>
+        <v>42916</v>
       </c>
       <c r="B92">
-        <v>57.9</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>42766</v>
+        <v>42886</v>
       </c>
       <c r="B93">
-        <v>57.2</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>42735</v>
+        <v>42855</v>
       </c>
       <c r="B94">
-        <v>56.3</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>42704</v>
+        <v>42825</v>
       </c>
       <c r="B95">
-        <v>54.6</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>42674</v>
+        <v>42794</v>
       </c>
       <c r="B96">
-        <v>54.8</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>42643</v>
+        <v>42766</v>
       </c>
       <c r="B97">
-        <v>52.8</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>42613</v>
+        <v>42735</v>
       </c>
       <c r="B98">
-        <v>52</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>42582</v>
+        <v>42704</v>
       </c>
       <c r="B99">
-        <v>52.6</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>42551</v>
+        <v>42674</v>
       </c>
       <c r="B100">
-        <v>55.9</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>42521</v>
+        <v>42643</v>
       </c>
       <c r="B101">
-        <v>55</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>42490</v>
+        <v>42613</v>
       </c>
       <c r="B102">
-        <v>53.9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>42460</v>
+        <v>42582</v>
       </c>
       <c r="B103">
-        <v>50.6</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>42429</v>
+        <v>42551</v>
       </c>
       <c r="B104">
-        <v>45.9</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>42400</v>
+        <v>42521</v>
       </c>
       <c r="B105">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>42369</v>
+        <v>42490</v>
       </c>
       <c r="B106">
-        <v>50.6</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>42338</v>
+        <v>42460</v>
       </c>
       <c r="B107">
-        <v>48.8</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>42308</v>
+        <v>42429</v>
       </c>
       <c r="B108">
-        <v>48.3</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>42277</v>
+        <v>42400</v>
       </c>
       <c r="B109">
-        <v>48.4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>42247</v>
+        <v>42369</v>
       </c>
       <c r="B110">
-        <v>51.1</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>42216</v>
+        <v>42338</v>
       </c>
       <c r="B111">
-        <v>52.5</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>42185</v>
+        <v>42308</v>
       </c>
       <c r="B112">
-        <v>52.3</v>
+        <v>48.3</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>42155</v>
+        <v>42277</v>
       </c>
       <c r="B113">
-        <v>53.7</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>42124</v>
+        <v>42247</v>
       </c>
       <c r="B114">
-        <v>50.4</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>42094</v>
+        <v>42216</v>
       </c>
       <c r="B115">
-        <v>53.6</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>42063</v>
+        <v>42185</v>
       </c>
       <c r="B116">
-        <v>50.9</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>42035</v>
+        <v>42155</v>
       </c>
       <c r="B117">
-        <v>47.3</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>42004</v>
+        <v>42124</v>
       </c>
       <c r="B118">
-        <v>51.1</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>41973</v>
+        <v>42094</v>
       </c>
       <c r="B119">
-        <v>54.5</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>41943</v>
+        <v>42063</v>
       </c>
       <c r="B120">
-        <v>52</v>
+        <v>50.9</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>41912</v>
+        <v>42035</v>
       </c>
       <c r="B121">
-        <v>55.1</v>
+        <v>47.3</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>41882</v>
+        <v>42004</v>
       </c>
       <c r="B122">
-        <v>57.7</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>41851</v>
+        <v>41973</v>
       </c>
       <c r="B123">
-        <v>58.1</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="B124">
-        <v>58.6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>41790</v>
+        <v>41912</v>
       </c>
       <c r="B125">
-        <v>58.5</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>41759</v>
+        <v>41882</v>
       </c>
       <c r="B126">
-        <v>61</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>41729</v>
+        <v>41851</v>
       </c>
       <c r="B127">
         <v>58.1</v>
@@ -1392,1601 +1392,1633 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>41698</v>
+        <v>41820</v>
       </c>
       <c r="B128">
-        <v>56.4</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>41670</v>
+        <v>41790</v>
       </c>
       <c r="B129">
-        <v>60</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>41639</v>
+        <v>41759</v>
       </c>
       <c r="B130">
-        <v>56.9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>41608</v>
+        <v>41729</v>
       </c>
       <c r="B131">
-        <v>53.2</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>41578</v>
+        <v>41698</v>
       </c>
       <c r="B132">
-        <v>56.2</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>41547</v>
+        <v>41670</v>
       </c>
       <c r="B133">
-        <v>56.4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>41517</v>
+        <v>41639</v>
       </c>
       <c r="B134">
-        <v>53.5</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>41486</v>
+        <v>41608</v>
       </c>
       <c r="B135">
-        <v>55.3</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>41455</v>
+        <v>41578</v>
       </c>
       <c r="B136">
-        <v>53.7</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>41425</v>
+        <v>41547</v>
       </c>
       <c r="B137">
-        <v>53</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <v>41394</v>
+        <v>41517</v>
       </c>
       <c r="B138">
-        <v>53.8</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>41364</v>
+        <v>41486</v>
       </c>
       <c r="B139">
-        <v>55.6</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>41333</v>
+        <v>41455</v>
       </c>
       <c r="B140">
-        <v>59.9</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>41305</v>
+        <v>41425</v>
       </c>
       <c r="B141">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>41274</v>
+        <v>41394</v>
       </c>
       <c r="B142">
-        <v>58.3</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>41243</v>
+        <v>41364</v>
       </c>
       <c r="B143">
-        <v>58.3</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
-        <v>41213</v>
+        <v>41333</v>
       </c>
       <c r="B144">
-        <v>60.9</v>
+        <v>59.9</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
-        <v>41182</v>
+        <v>41305</v>
       </c>
       <c r="B145">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
-        <v>41152</v>
+        <v>41274</v>
       </c>
       <c r="B146">
-        <v>62.1</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
-        <v>41121</v>
+        <v>41243</v>
       </c>
       <c r="B147">
-        <v>52.8</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
-        <v>41090</v>
+        <v>41213</v>
       </c>
       <c r="B148">
-        <v>48.5</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
-        <v>41060</v>
+        <v>41182</v>
       </c>
       <c r="B149">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
-        <v>41029</v>
+        <v>41152</v>
       </c>
       <c r="B150">
-        <v>58.7</v>
+        <v>62.1</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
-        <v>40999</v>
+        <v>41121</v>
       </c>
       <c r="B151">
-        <v>63.7</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <v>40968</v>
+        <v>41090</v>
       </c>
       <c r="B152">
-        <v>65.400000000000006</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
-        <v>40939</v>
+        <v>41060</v>
       </c>
       <c r="B153">
-        <v>63.8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
-        <v>40908</v>
+        <v>41029</v>
       </c>
       <c r="B154">
-        <v>62.2</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
-        <v>40877</v>
+        <v>40999</v>
       </c>
       <c r="B155">
-        <v>63.4</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
-        <v>40847</v>
+        <v>40968</v>
       </c>
       <c r="B156">
-        <v>57.7</v>
+        <v>65.400000000000006</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
-        <v>40816</v>
+        <v>40939</v>
       </c>
       <c r="B157">
-        <v>60.9</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
-        <v>40786</v>
+        <v>40908</v>
       </c>
       <c r="B158">
-        <v>61.3</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
-        <v>40755</v>
+        <v>40877</v>
       </c>
       <c r="B159">
-        <v>60.7</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
-        <v>40724</v>
+        <v>40847</v>
       </c>
       <c r="B160">
-        <v>62.4</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
-        <v>40694</v>
+        <v>40816</v>
       </c>
       <c r="B161">
-        <v>70.3</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <v>40663</v>
+        <v>40786</v>
       </c>
       <c r="B162">
-        <v>71</v>
+        <v>61.3</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
-        <v>40633</v>
+        <v>40755</v>
       </c>
       <c r="B163">
-        <v>70.900000000000006</v>
+        <v>60.7</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
-        <v>40602</v>
+        <v>40724</v>
       </c>
       <c r="B164">
-        <v>70.900000000000006</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
-        <v>40574</v>
+        <v>40694</v>
       </c>
       <c r="B165">
-        <v>70</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
-        <v>40543</v>
+        <v>40663</v>
       </c>
       <c r="B166">
-        <v>69.3</v>
+        <v>71</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
-        <v>40512</v>
+        <v>40633</v>
       </c>
       <c r="B167">
-        <v>65.599999999999994</v>
+        <v>70.900000000000006</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
-        <v>40482</v>
+        <v>40602</v>
       </c>
       <c r="B168">
-        <v>68.2</v>
+        <v>70.900000000000006</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
-        <v>40451</v>
+        <v>40574</v>
       </c>
       <c r="B169">
-        <v>59.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
-        <v>40421</v>
+        <v>40543</v>
       </c>
       <c r="B170">
-        <v>59.2</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
-        <v>40390</v>
+        <v>40512</v>
       </c>
       <c r="B171">
-        <v>56.1</v>
+        <v>65.599999999999994</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
-        <v>40359</v>
+        <v>40482</v>
       </c>
       <c r="B172">
-        <v>56.7</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
-        <v>40329</v>
+        <v>40451</v>
       </c>
       <c r="B173">
-        <v>60.8</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
-        <v>40298</v>
+        <v>40421</v>
       </c>
       <c r="B174">
-        <v>63.8</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
-        <v>40268</v>
+        <v>40390</v>
       </c>
       <c r="B175">
-        <v>60.9</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
-        <v>40237</v>
+        <v>40359</v>
       </c>
       <c r="B176">
-        <v>58.7</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
-        <v>40209</v>
+        <v>40329</v>
       </c>
       <c r="B177">
-        <v>59.4</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
-        <v>40178</v>
+        <v>40298</v>
       </c>
       <c r="B178">
-        <v>58.9</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
-        <v>40147</v>
+        <v>40268</v>
       </c>
       <c r="B179">
-        <v>58.9</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
-        <v>40117</v>
+        <v>40237</v>
       </c>
       <c r="B180">
-        <v>53.5</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
-        <v>40086</v>
+        <v>40209</v>
       </c>
       <c r="B181">
-        <v>49.6</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
-        <v>40056</v>
+        <v>40178</v>
       </c>
       <c r="B182">
-        <v>60.8</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
-        <v>40025</v>
+        <v>40147</v>
       </c>
       <c r="B183">
-        <v>41.5</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
-        <v>39994</v>
+        <v>40117</v>
       </c>
       <c r="B184">
-        <v>52.9</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
-        <v>39964</v>
+        <v>40086</v>
       </c>
       <c r="B185">
-        <v>47.1</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
-        <v>39933</v>
+        <v>40056</v>
       </c>
       <c r="B186">
-        <v>39.9</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
-        <v>39903</v>
+        <v>40025</v>
       </c>
       <c r="B187">
-        <v>40</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
-        <v>39872</v>
+        <v>39994</v>
       </c>
       <c r="B188">
-        <v>48.6</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
-        <v>39844</v>
+        <v>39964</v>
       </c>
       <c r="B189">
-        <v>41.7</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
-        <v>39813</v>
+        <v>39933</v>
       </c>
       <c r="B190">
-        <v>36.1</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
-        <v>39782</v>
+        <v>39903</v>
       </c>
       <c r="B191">
-        <v>37.4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
-        <v>39752</v>
+        <v>39872</v>
       </c>
       <c r="B192">
-        <v>53.9</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
-        <v>39721</v>
+        <v>39844</v>
       </c>
       <c r="B193">
-        <v>71.900000000000006</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
-        <v>39691</v>
+        <v>39813</v>
       </c>
       <c r="B194">
-        <v>72.400000000000006</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
-        <v>39660</v>
+        <v>39782</v>
       </c>
       <c r="B195">
-        <v>77.400000000000006</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
-        <v>39629</v>
+        <v>39752</v>
       </c>
       <c r="B196">
-        <v>79.599999999999994</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
-        <v>39599</v>
+        <v>39721</v>
       </c>
       <c r="B197">
-        <v>75.2</v>
+        <v>71.900000000000006</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
-        <v>39568</v>
+        <v>39691</v>
       </c>
       <c r="B198">
-        <v>71.900000000000006</v>
+        <v>72.400000000000006</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
-        <v>39538</v>
+        <v>39660</v>
       </c>
       <c r="B199">
-        <v>72.7</v>
+        <v>77.400000000000006</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
-        <v>39507</v>
+        <v>39629</v>
       </c>
       <c r="B200">
-        <v>71.7</v>
+        <v>79.599999999999994</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
-        <v>39478</v>
+        <v>39599</v>
       </c>
       <c r="B201">
-        <v>71.599999999999994</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
-        <v>39447</v>
+        <v>39568</v>
       </c>
       <c r="B202">
-        <v>72</v>
+        <v>71.900000000000006</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
-        <v>39416</v>
+        <v>39538</v>
       </c>
       <c r="B203">
-        <v>75.3</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
-        <v>39386</v>
+        <v>39507</v>
       </c>
       <c r="B204">
-        <v>66.2</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
-        <v>39355</v>
+        <v>39478</v>
       </c>
       <c r="B205">
-        <v>66.7</v>
+        <v>71.599999999999994</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
-        <v>39325</v>
+        <v>39447</v>
       </c>
       <c r="B206">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
-        <v>39294</v>
+        <v>39416</v>
       </c>
       <c r="B207">
-        <v>59.7</v>
+        <v>75.3</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
-        <v>39263</v>
+        <v>39386</v>
       </c>
       <c r="B208">
-        <v>61.6</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
-        <v>39233</v>
+        <v>39355</v>
       </c>
       <c r="B209">
-        <v>62.8</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
-        <v>39202</v>
+        <v>39325</v>
       </c>
       <c r="B210">
-        <v>63.2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
-        <v>39172</v>
+        <v>39294</v>
       </c>
       <c r="B211">
-        <v>64.2</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
-        <v>39141</v>
+        <v>39263</v>
       </c>
       <c r="B212">
-        <v>57</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
-        <v>39113</v>
+        <v>39233</v>
       </c>
       <c r="B213">
-        <v>57.5</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
-        <v>39082</v>
+        <v>39202</v>
       </c>
       <c r="B214">
-        <v>60.5</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
-        <v>39051</v>
+        <v>39172</v>
       </c>
       <c r="B215">
-        <v>56.7</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
-        <v>39021</v>
+        <v>39141</v>
       </c>
       <c r="B216">
-        <v>56.5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
-        <v>38990</v>
+        <v>39113</v>
       </c>
       <c r="B217">
-        <v>60.6</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
-        <v>38960</v>
+        <v>39082</v>
       </c>
       <c r="B218">
-        <v>72.2</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
-        <v>38929</v>
+        <v>39051</v>
       </c>
       <c r="B219">
-        <v>70.599999999999994</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
-        <v>38898</v>
+        <v>39021</v>
       </c>
       <c r="B220">
-        <v>69</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
-        <v>38868</v>
+        <v>38990</v>
       </c>
       <c r="B221">
-        <v>70.5</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
-        <v>38837</v>
+        <v>38960</v>
       </c>
       <c r="B222">
-        <v>68.5</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
-        <v>38807</v>
+        <v>38929</v>
       </c>
       <c r="B223">
-        <v>60.1</v>
+        <v>70.599999999999994</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
-        <v>38776</v>
+        <v>38898</v>
       </c>
       <c r="B224">
-        <v>67.8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
-        <v>38748</v>
+        <v>38868</v>
       </c>
       <c r="B225">
-        <v>69.900000000000006</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
-        <v>38717</v>
+        <v>38837</v>
       </c>
       <c r="B226">
-        <v>68.900000000000006</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
-        <v>38686</v>
+        <v>38807</v>
       </c>
       <c r="B227">
-        <v>72.599999999999994</v>
+        <v>60.1</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
-        <v>38656</v>
+        <v>38776</v>
       </c>
       <c r="B228">
-        <v>79.2</v>
+        <v>67.8</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
-        <v>38625</v>
+        <v>38748</v>
       </c>
       <c r="B229">
-        <v>83.5</v>
+        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
-        <v>38595</v>
+        <v>38717</v>
       </c>
       <c r="B230">
-        <v>66.099999999999994</v>
+        <v>68.900000000000006</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
-        <v>38564</v>
+        <v>38686</v>
       </c>
       <c r="B231">
-        <v>65.8</v>
+        <v>72.599999999999994</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
-        <v>38533</v>
+        <v>38656</v>
       </c>
       <c r="B232">
-        <v>58.4</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
-        <v>38503</v>
+        <v>38625</v>
       </c>
       <c r="B233">
-        <v>57.6</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
-        <v>38472</v>
+        <v>38595</v>
       </c>
       <c r="B234">
-        <v>62.4</v>
+        <v>66.099999999999994</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
-        <v>38442</v>
+        <v>38564</v>
       </c>
       <c r="B235">
-        <v>65.599999999999994</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
-        <v>38411</v>
+        <v>38533</v>
       </c>
       <c r="B236">
-        <v>69.7</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
-        <v>38383</v>
+        <v>38503</v>
       </c>
       <c r="B237">
-        <v>69.099999999999994</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
-        <v>38352</v>
+        <v>38472</v>
       </c>
       <c r="B238">
-        <v>71.3</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
-        <v>38321</v>
+        <v>38442</v>
       </c>
       <c r="B239">
-        <v>70.599999999999994</v>
+        <v>65.599999999999994</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
-        <v>38291</v>
+        <v>38411</v>
       </c>
       <c r="B240">
-        <v>72.8</v>
+        <v>69.7</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
-        <v>38260</v>
+        <v>38383</v>
       </c>
       <c r="B241">
-        <v>67</v>
+        <v>69.099999999999994</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
-        <v>38230</v>
+        <v>38352</v>
       </c>
       <c r="B242">
-        <v>70.900000000000006</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
-        <v>38199</v>
+        <v>38321</v>
       </c>
       <c r="B243">
-        <v>71.900000000000006</v>
+        <v>70.599999999999994</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
-        <v>38168</v>
+        <v>38291</v>
       </c>
       <c r="B244">
-        <v>74.2</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
-        <v>38138</v>
+        <v>38260</v>
       </c>
       <c r="B245">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
-        <v>38107</v>
+        <v>38230</v>
       </c>
       <c r="B246">
-        <v>68.599999999999994</v>
+        <v>70.900000000000006</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
-        <v>38077</v>
+        <v>38199</v>
       </c>
       <c r="B247">
-        <v>65</v>
+        <v>71.900000000000006</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
-        <v>38046</v>
+        <v>38168</v>
       </c>
       <c r="B248">
-        <v>59.5</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
-        <v>38017</v>
+        <v>38138</v>
       </c>
       <c r="B249">
-        <v>62.2</v>
+        <v>71</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
-        <v>37986</v>
+        <v>38107</v>
       </c>
       <c r="B250">
-        <v>61.1</v>
+        <v>68.599999999999994</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
-        <v>37955</v>
+        <v>38077</v>
       </c>
       <c r="B251">
-        <v>58.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
-        <v>37925</v>
+        <v>38046</v>
       </c>
       <c r="B252">
-        <v>57.2</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
-        <v>37894</v>
+        <v>38017</v>
       </c>
       <c r="B253">
-        <v>59.5</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
-        <v>37864</v>
+        <v>37986</v>
       </c>
       <c r="B254">
-        <v>56.1</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
-        <v>37833</v>
+        <v>37955</v>
       </c>
       <c r="B255">
-        <v>51.4</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
-        <v>37802</v>
+        <v>37925</v>
       </c>
       <c r="B256">
-        <v>52.3</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
-        <v>37772</v>
+        <v>37894</v>
       </c>
       <c r="B257">
-        <v>50</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
-        <v>37741</v>
+        <v>37864</v>
       </c>
       <c r="B258">
-        <v>55.7</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
-        <v>37711</v>
+        <v>37833</v>
       </c>
       <c r="B259">
-        <v>59.4</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
-        <v>37680</v>
+        <v>37802</v>
       </c>
       <c r="B260">
-        <v>60.5</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
-        <v>37652</v>
+        <v>37772</v>
       </c>
       <c r="B261">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
-        <v>37621</v>
+        <v>37741</v>
       </c>
       <c r="B262">
-        <v>56.5</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
-        <v>37590</v>
+        <v>37711</v>
       </c>
       <c r="B263">
-        <v>57.6</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
-        <v>37560</v>
+        <v>37680</v>
       </c>
       <c r="B264">
-        <v>56.1</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
-        <v>37529</v>
+        <v>37652</v>
       </c>
       <c r="B265">
-        <v>53.4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
-        <v>37499</v>
+        <v>37621</v>
       </c>
       <c r="B266">
-        <v>55.1</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
-        <v>37468</v>
+        <v>37590</v>
       </c>
       <c r="B267">
-        <v>60.5</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
-        <v>37437</v>
+        <v>37560</v>
       </c>
       <c r="B268">
-        <v>53.1</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
-        <v>37407</v>
+        <v>37529</v>
       </c>
       <c r="B269">
-        <v>55.2</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
-        <v>37376</v>
+        <v>37499</v>
       </c>
       <c r="B270">
-        <v>53.7</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
-        <v>37346</v>
+        <v>37468</v>
       </c>
       <c r="B271">
-        <v>49.2</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
-        <v>37315</v>
+        <v>37437</v>
       </c>
       <c r="B272">
-        <v>47.6</v>
+        <v>53.1</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
-        <v>37287</v>
+        <v>37407</v>
       </c>
       <c r="B273">
-        <v>48.8</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
-        <v>37256</v>
+        <v>37376</v>
       </c>
       <c r="B274">
-        <v>42.3</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
-        <v>37225</v>
+        <v>37346</v>
       </c>
       <c r="B275">
-        <v>41.3</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
-        <v>37195</v>
+        <v>37315</v>
       </c>
       <c r="B276">
-        <v>43.4</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
-        <v>37164</v>
+        <v>37287</v>
       </c>
       <c r="B277">
-        <v>50.2</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
-        <v>37134</v>
+        <v>37256</v>
       </c>
       <c r="B278">
-        <v>48.9</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
-        <v>37103</v>
+        <v>37225</v>
       </c>
       <c r="B279">
-        <v>49.9</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
-        <v>37072</v>
+        <v>37195</v>
       </c>
       <c r="B280">
-        <v>54.5</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
-        <v>37042</v>
+        <v>37164</v>
       </c>
       <c r="B281">
-        <v>58.5</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
-        <v>37011</v>
+        <v>37134</v>
       </c>
       <c r="B282">
-        <v>53.8</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
-        <v>36981</v>
+        <v>37103</v>
       </c>
       <c r="B283">
-        <v>55.8</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
-        <v>36950</v>
+        <v>37072</v>
       </c>
       <c r="B284">
-        <v>58.1</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
-        <v>36922</v>
+        <v>37042</v>
       </c>
       <c r="B285">
-        <v>61.8</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
-        <v>36891</v>
+        <v>37011</v>
       </c>
       <c r="B286">
-        <v>63.5</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
-        <v>36860</v>
+        <v>36981</v>
       </c>
       <c r="B287">
-        <v>60.9</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
-        <v>36830</v>
+        <v>36950</v>
       </c>
       <c r="B288">
-        <v>63.7</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
-        <v>36799</v>
+        <v>36922</v>
       </c>
       <c r="B289">
-        <v>62.1</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
-        <v>36769</v>
+        <v>36891</v>
       </c>
       <c r="B290">
-        <v>59.2</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
-        <v>36738</v>
+        <v>36860</v>
       </c>
       <c r="B291">
-        <v>62.1</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
-        <v>36707</v>
+        <v>36830</v>
       </c>
       <c r="B292">
-        <v>65</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
-        <v>36677</v>
+        <v>36799</v>
       </c>
       <c r="B293">
-        <v>64.2</v>
+        <v>62.1</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
-        <v>36646</v>
+        <v>36769</v>
       </c>
       <c r="B294">
-        <v>65</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
-        <v>36616</v>
+        <v>36738</v>
       </c>
       <c r="B295">
-        <v>68.599999999999994</v>
+        <v>62.1</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
-        <v>36585</v>
+        <v>36707</v>
       </c>
       <c r="B296">
-        <v>66.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
-        <v>36556</v>
+        <v>36677</v>
       </c>
       <c r="B297">
-        <v>61.4</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
-        <v>36525</v>
+        <v>36646</v>
       </c>
       <c r="B298">
-        <v>60.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
-        <v>36494</v>
+        <v>36616</v>
       </c>
       <c r="B299">
-        <v>61</v>
+        <v>68.599999999999994</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
-        <v>36464</v>
+        <v>36585</v>
       </c>
       <c r="B300">
-        <v>58.9</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
-        <v>36433</v>
+        <v>36556</v>
       </c>
       <c r="B301">
-        <v>64.2</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
-        <v>36403</v>
+        <v>36525</v>
       </c>
       <c r="B302">
-        <v>58.9</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
-        <v>36372</v>
+        <v>36494</v>
       </c>
       <c r="B303">
-        <v>57.7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
-        <v>36341</v>
+        <v>36464</v>
       </c>
       <c r="B304">
-        <v>53.2</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
-        <v>36311</v>
+        <v>36433</v>
       </c>
       <c r="B305">
-        <v>52.9</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
-        <v>36280</v>
+        <v>36403</v>
       </c>
       <c r="B306">
-        <v>51.4</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
-        <v>36250</v>
+        <v>36372</v>
       </c>
       <c r="B307">
-        <v>48.9</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
-        <v>36219</v>
+        <v>36341</v>
       </c>
       <c r="B308">
-        <v>45.5</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
-        <v>36191</v>
+        <v>36311</v>
       </c>
       <c r="B309">
-        <v>47</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
-        <v>36160</v>
+        <v>36280</v>
       </c>
       <c r="B310">
-        <v>48.5</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
-        <v>36129</v>
+        <v>36250</v>
       </c>
       <c r="B311">
-        <v>47.3</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
-        <v>36099</v>
+        <v>36219</v>
       </c>
       <c r="B312">
-        <v>49.3</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
-        <v>36068</v>
+        <v>36191</v>
       </c>
       <c r="B313">
-        <v>46.2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
-        <v>36038</v>
+        <v>36160</v>
       </c>
       <c r="B314">
-        <v>47.9</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
-        <v>36007</v>
+        <v>36129</v>
       </c>
       <c r="B315">
-        <v>47</v>
+        <v>47.3</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
-        <v>35976</v>
+        <v>36099</v>
       </c>
       <c r="B316">
-        <v>45.5</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
-        <v>35946</v>
+        <v>36068</v>
       </c>
       <c r="B317">
-        <v>47.2</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
-        <v>35915</v>
+        <v>36038</v>
       </c>
       <c r="B318">
-        <v>46.8</v>
+        <v>47.9</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
-        <v>35885</v>
+        <v>36007</v>
       </c>
       <c r="B319">
-        <v>47.9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
-        <v>35854</v>
+        <v>35976</v>
       </c>
       <c r="B320">
-        <v>51.6</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
-        <v>35826</v>
+        <v>35946</v>
       </c>
       <c r="B321">
-        <v>52.7</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
-        <v>35795</v>
+        <v>35915</v>
       </c>
       <c r="B322">
-        <v>54.9</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
-        <v>35764</v>
+        <v>35885</v>
       </c>
       <c r="B323">
-        <v>54.3</v>
+        <v>47.9</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
-        <v>35734</v>
+        <v>35854</v>
       </c>
       <c r="B324">
-        <v>53.1</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
-        <v>35703</v>
+        <v>35826</v>
       </c>
       <c r="B325">
-        <v>53.1</v>
+        <v>52.7</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
-        <v>35673</v>
+        <v>35795</v>
       </c>
       <c r="B326">
-        <v>53.3</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
+        <v>35764</v>
+      </c>
+      <c r="B327">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A328" s="1">
+        <v>35734</v>
+      </c>
+      <c r="B328">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A329" s="1">
+        <v>35703</v>
+      </c>
+      <c r="B329">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A330" s="1">
+        <v>35673</v>
+      </c>
+      <c r="B330">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A331" s="1">
         <v>35642</v>
       </c>
-      <c r="B327">
+      <c r="B331">
         <v>50.9</v>
       </c>
     </row>
